--- a/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(彰化縣).xlsx
+++ b/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(彰化縣).xlsx
@@ -7633,22 +7633,22 @@
         <v>3781.0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1234.0</v>
+        <v>952.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>251994.0</v>
+        <v>252276.0</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1531.0</v>
+        <v>1505.0</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17835.0</v>
+        <v>17577.0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>255616.0</v>
+        <v>255899.0</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1968.0</v>
+        <v>1969.0</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>1527.0</v>
@@ -29130,22 +29130,22 @@
         <v>792.0</v>
       </c>
       <c r="H265" s="4" t="n">
-        <v>415.0</v>
+        <v>133.0</v>
       </c>
       <c r="I265" s="4" t="n">
-        <v>44701.0</v>
+        <v>44983.0</v>
       </c>
       <c r="J265" s="4" t="n">
-        <v>213.0</v>
+        <v>187.0</v>
       </c>
       <c r="K265" s="4" t="n">
-        <v>4080.0</v>
+        <v>3822.0</v>
       </c>
       <c r="L265" s="4" t="n">
-        <v>47443.0</v>
+        <v>47726.0</v>
       </c>
       <c r="M265" s="4" t="n">
-        <v>375.0</v>
+        <v>376.0</v>
       </c>
       <c r="N265" s="4" t="n">
         <v>320.0</v>
@@ -32367,22 +32367,22 @@
         <v>7.0</v>
       </c>
       <c r="H304" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I304" s="4" t="n">
         <v>282.0</v>
       </c>
-      <c r="I304" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J304" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K304" s="4" t="n">
         <v>26.0</v>
       </c>
-      <c r="K304" s="4" t="n">
+      <c r="L304" s="4" t="n">
         <v>284.0</v>
       </c>
-      <c r="L304" s="4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="M304" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N304" s="4" t="n">
         <v>0.0</v>
